--- a/Data Cleaning Excel -RAW.xlsx
+++ b/Data Cleaning Excel -RAW.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C3F4832D-6691-4E80-9CE5-51C600B1F941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249F9BDD-7997-4E7B-B673-21C9B918AB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="US_Presidents Excel Tutorial Da" sheetId="1" r:id="rId1"/>
+    <sheet name="US_Presidents" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -451,7 +451,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -941,7 +941,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1300,15 +1300,15 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="23.5546875" style="3"/>
+    <col min="7" max="7" width="23.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
